--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_19_22.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_19_22.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>641608.7467693387</v>
+        <v>671944.2611818379</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1790467.545064538</v>
+        <v>1784511.217947469</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24007487.45890418</v>
+        <v>24018285.99384455</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4576145.375485052</v>
+        <v>4572225.505591175</v>
       </c>
     </row>
     <row r="11">
@@ -7985,10 +7987,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M2" t="n">
-        <v>94.50134181136147</v>
+        <v>95.70913181393388</v>
       </c>
       <c r="N2" t="n">
-        <v>89.2146190330682</v>
+        <v>90.44195234058779</v>
       </c>
       <c r="O2" t="n">
         <v>99.00804712831379</v>
@@ -8061,19 +8063,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L3" t="n">
-        <v>42.27423123832551</v>
+        <v>43.07331968004391</v>
       </c>
       <c r="M3" t="n">
-        <v>20.73666047215158</v>
+        <v>21.66915899307011</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>0.9571789820313086</v>
       </c>
       <c r="O3" t="n">
-        <v>32.82469745261383</v>
+        <v>33.70032922107961</v>
       </c>
       <c r="P3" t="n">
-        <v>54.90492507792075</v>
+        <v>55.60769676917488</v>
       </c>
       <c r="Q3" t="n">
         <v>54.62009481132077</v>
@@ -8222,13 +8224,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M5" t="n">
-        <v>87.70217318086767</v>
+        <v>94.50134181136147</v>
       </c>
       <c r="N5" t="n">
-        <v>82.30543274582104</v>
+        <v>89.2146190330682</v>
       </c>
       <c r="O5" t="n">
-        <v>97.41850398649893</v>
+        <v>99.00804712831379</v>
       </c>
       <c r="P5" t="n">
         <v>83.66766412458549</v>
@@ -8298,19 +8300,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L6" t="n">
-        <v>37.77581921773398</v>
+        <v>42.27423123832551</v>
       </c>
       <c r="M6" t="n">
-        <v>15.48722582050885</v>
+        <v>20.73666047215158</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>27.89539017292432</v>
+        <v>32.82469745261383</v>
       </c>
       <c r="P6" t="n">
-        <v>50.94872141056362</v>
+        <v>54.90492507792075</v>
       </c>
       <c r="Q6" t="n">
         <v>54.62009481132077</v>
@@ -8927,7 +8929,7 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>82.69308435253603</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L14" t="n">
         <v>48.07411698098349</v>
@@ -9401,7 +9403,7 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>82.693084352536</v>
+        <v>82.69308435253603</v>
       </c>
       <c r="L20" t="n">
         <v>48.07411698098349</v>
@@ -22559,22 +22561,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G2" t="n">
-        <v>422.2098565259836</v>
+        <v>422.2167349439148</v>
       </c>
       <c r="H2" t="n">
-        <v>349.9597650259403</v>
+        <v>350.0302086235789</v>
       </c>
       <c r="I2" t="n">
-        <v>254.413627538865</v>
+        <v>254.6788077461599</v>
       </c>
       <c r="J2" t="n">
-        <v>103.6577574092157</v>
+        <v>104.241554533109</v>
       </c>
       <c r="K2" t="n">
-        <v>62.01598937483024</v>
+        <v>62.89094992975379</v>
       </c>
       <c r="L2" t="n">
-        <v>18.38450875428637</v>
+        <v>19.46997469197376</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -22583,25 +22585,25 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>4.934605547775959</v>
+        <v>6.093541586991591</v>
       </c>
       <c r="P2" t="n">
-        <v>56.01237276874352</v>
+        <v>57.00149786528118</v>
       </c>
       <c r="Q2" t="n">
-        <v>120.8562777625268</v>
+        <v>121.5990695169012</v>
       </c>
       <c r="R2" t="n">
-        <v>211.4982239222711</v>
+        <v>211.9303003426456</v>
       </c>
       <c r="S2" t="n">
-        <v>235.9346815086628</v>
+        <v>236.0914234572714</v>
       </c>
       <c r="T2" t="n">
-        <v>219.4718503679457</v>
+        <v>219.5019606424398</v>
       </c>
       <c r="U2" t="n">
-        <v>248.7911763328777</v>
+        <v>248.7917266063122</v>
       </c>
       <c r="V2" t="n">
         <v>313.3044420010231</v>
@@ -22638,19 +22640,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G3" t="n">
-        <v>161.0306354769367</v>
+        <v>161.0343157549836</v>
       </c>
       <c r="H3" t="n">
-        <v>137.9016867325838</v>
+        <v>137.937230470563</v>
       </c>
       <c r="I3" t="n">
-        <v>117.4902810648562</v>
+        <v>117.6169923923482</v>
       </c>
       <c r="J3" t="n">
-        <v>82.93859734111298</v>
+        <v>83.28630290869316</v>
       </c>
       <c r="K3" t="n">
-        <v>13.57083277636241</v>
+        <v>14.16511697308491</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -22668,19 +22670,19 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>55.82666100818672</v>
+        <v>56.29644527255945</v>
       </c>
       <c r="R3" t="n">
-        <v>155.3651088272201</v>
+        <v>155.5936088975356</v>
       </c>
       <c r="S3" t="n">
-        <v>208.3135435403172</v>
+        <v>208.3819030908814</v>
       </c>
       <c r="T3" t="n">
-        <v>230.1584524961191</v>
+        <v>230.1732865992993</v>
       </c>
       <c r="U3" t="n">
-        <v>249.6505853349712</v>
+        <v>249.6508274585269</v>
       </c>
       <c r="V3" t="n">
         <v>249.2999251801724</v>
@@ -22717,49 +22719,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G4" t="n">
-        <v>169.247518043053</v>
+        <v>169.250603464539</v>
       </c>
       <c r="H4" t="n">
-        <v>167.6944209426916</v>
+        <v>167.7218531446305</v>
       </c>
       <c r="I4" t="n">
-        <v>168.1305865516738</v>
+        <v>168.2233735905427</v>
       </c>
       <c r="J4" t="n">
-        <v>133.20905535072</v>
+        <v>133.427194649778</v>
       </c>
       <c r="K4" t="n">
-        <v>88.99056004441432</v>
+        <v>89.34902992251145</v>
       </c>
       <c r="L4" t="n">
-        <v>62.96960703121101</v>
+        <v>63.42832505831589</v>
       </c>
       <c r="M4" t="n">
-        <v>59.70650310975206</v>
+        <v>60.19015695232082</v>
       </c>
       <c r="N4" t="n">
-        <v>47.31542685419204</v>
+        <v>47.78758048940401</v>
       </c>
       <c r="O4" t="n">
-        <v>72.58297639552539</v>
+        <v>73.019086697924</v>
       </c>
       <c r="P4" t="n">
-        <v>91.43798011889523</v>
+        <v>91.81114782298006</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.7386590351999</v>
+        <v>152.9970210107205</v>
       </c>
       <c r="R4" t="n">
-        <v>221.644124959155</v>
+        <v>221.7828567288786</v>
       </c>
       <c r="S4" t="n">
-        <v>243.9209403175845</v>
+        <v>243.9747107992991</v>
       </c>
       <c r="T4" t="n">
-        <v>218.1427676199599</v>
+        <v>218.1559507844908</v>
       </c>
       <c r="U4" t="n">
-        <v>291.2202965310711</v>
+        <v>291.2204648267885</v>
       </c>
       <c r="V4" t="n">
         <v>237.3615500762718</v>
@@ -22796,22 +22798,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G5" t="n">
-        <v>422.1711349573947</v>
+        <v>422.2098565259836</v>
       </c>
       <c r="H5" t="n">
-        <v>349.5632077616288</v>
+        <v>349.9597650259403</v>
       </c>
       <c r="I5" t="n">
-        <v>252.9208142658397</v>
+        <v>254.413627538865</v>
       </c>
       <c r="J5" t="n">
-        <v>100.3713126771896</v>
+        <v>103.6577574092157</v>
       </c>
       <c r="K5" t="n">
-        <v>57.09046064443405</v>
+        <v>62.01598937483024</v>
       </c>
       <c r="L5" t="n">
-        <v>12.27395481918626</v>
+        <v>18.38450875428637</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -22820,25 +22822,25 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>4.934605547775959</v>
       </c>
       <c r="P5" t="n">
-        <v>50.44416280369231</v>
+        <v>56.01237276874352</v>
       </c>
       <c r="Q5" t="n">
-        <v>116.6747839725672</v>
+        <v>120.8562777625268</v>
       </c>
       <c r="R5" t="n">
-        <v>209.0658801893956</v>
+        <v>211.4982239222711</v>
       </c>
       <c r="S5" t="n">
-        <v>235.0523137644422</v>
+        <v>235.9346815086628</v>
       </c>
       <c r="T5" t="n">
-        <v>219.3023467014476</v>
+        <v>219.4718503679457</v>
       </c>
       <c r="U5" t="n">
-        <v>248.7880786073906</v>
+        <v>248.7911763328777</v>
       </c>
       <c r="V5" t="n">
         <v>313.3044420010231</v>
@@ -22875,19 +22877,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G6" t="n">
-        <v>161.0099176112525</v>
+        <v>161.0306354769367</v>
       </c>
       <c r="H6" t="n">
-        <v>137.701595766634</v>
+        <v>137.9016867325838</v>
       </c>
       <c r="I6" t="n">
-        <v>116.7769685840635</v>
+        <v>117.4902810648562</v>
       </c>
       <c r="J6" t="n">
-        <v>80.98121337311861</v>
+        <v>82.93859734111298</v>
       </c>
       <c r="K6" t="n">
-        <v>10.2253518075286</v>
+        <v>13.57083277636241</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -22905,19 +22907,19 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>53.18204362716871</v>
+        <v>55.82666100818672</v>
       </c>
       <c r="R6" t="n">
-        <v>154.0787837981626</v>
+        <v>155.3651088272201</v>
       </c>
       <c r="S6" t="n">
-        <v>207.928718272017</v>
+        <v>208.3135435403172</v>
       </c>
       <c r="T6" t="n">
-        <v>230.0749449585587</v>
+        <v>230.1584524961191</v>
       </c>
       <c r="U6" t="n">
-        <v>249.6492223174919</v>
+        <v>249.6505853349712</v>
       </c>
       <c r="V6" t="n">
         <v>249.2999251801724</v>
@@ -22954,49 +22956,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G7" t="n">
-        <v>169.2301488804216</v>
+        <v>169.247518043053</v>
       </c>
       <c r="H7" t="n">
-        <v>167.5399932967506</v>
+        <v>167.6944209426916</v>
       </c>
       <c r="I7" t="n">
-        <v>167.6082484609042</v>
+        <v>168.1305865516738</v>
       </c>
       <c r="J7" t="n">
-        <v>131.9810555526804</v>
+        <v>133.20905535072</v>
       </c>
       <c r="K7" t="n">
-        <v>86.97257914960325</v>
+        <v>88.99056004441432</v>
       </c>
       <c r="L7" t="n">
-        <v>60.38728625235809</v>
+        <v>62.96960703121101</v>
       </c>
       <c r="M7" t="n">
-        <v>56.98380791654179</v>
+        <v>59.70650310975206</v>
       </c>
       <c r="N7" t="n">
-        <v>44.65747126715333</v>
+        <v>47.31542685419204</v>
       </c>
       <c r="O7" t="n">
-        <v>70.12792420831707</v>
+        <v>72.58297639552539</v>
       </c>
       <c r="P7" t="n">
-        <v>89.33725884936734</v>
+        <v>91.43798011889523</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.2842285170384</v>
+        <v>152.7386590351999</v>
       </c>
       <c r="R7" t="n">
-        <v>220.8631442466561</v>
+        <v>221.644124959155</v>
       </c>
       <c r="S7" t="n">
-        <v>243.6182431833629</v>
+        <v>243.9209403175845</v>
       </c>
       <c r="T7" t="n">
-        <v>218.0685539250803</v>
+        <v>218.1427676199599</v>
       </c>
       <c r="U7" t="n">
-        <v>291.2193491222004</v>
+        <v>291.2202965310711</v>
       </c>
       <c r="V7" t="n">
         <v>237.3615500762718</v>
@@ -23537,7 +23539,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>66.86288983651983</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R14" t="n">
         <v>180.0906730958467</v>
@@ -23677,10 +23679,10 @@
         <v>117.3525521967958</v>
       </c>
       <c r="K16" t="n">
-        <v>62.93345443721985</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L16" t="n">
-        <v>29.62548300147246</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M16" t="n">
         <v>24.54979951156312</v>
@@ -24011,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>66.8628898365198</v>
+        <v>66.86288983651983</v>
       </c>
       <c r="R20" t="n">
         <v>180.0906730958467</v>
@@ -24151,10 +24153,10 @@
         <v>117.3525521967958</v>
       </c>
       <c r="K22" t="n">
-        <v>62.93345443721984</v>
+        <v>62.93345443721985</v>
       </c>
       <c r="L22" t="n">
-        <v>29.62548300147245</v>
+        <v>29.62548300147246</v>
       </c>
       <c r="M22" t="n">
         <v>24.54979951156312</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>375265.573945687</v>
+        <v>374638.8221831821</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>378690.4168023153</v>
+        <v>375265.573945687</v>
       </c>
     </row>
     <row r="4">
@@ -26311,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>155573.9223530953</v>
+      </c>
+      <c r="C2" t="n">
         <v>155942.7727794829</v>
-      </c>
-      <c r="C2" t="n">
-        <v>157949.600039976</v>
       </c>
       <c r="D2" t="n">
         <v>162981.0051994979</v>
@@ -26363,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>330871.7541851042</v>
+        <v>329223.0061167778</v>
       </c>
       <c r="C3" t="n">
-        <v>8770.909527807677</v>
+        <v>1558.045904853998</v>
       </c>
       <c r="D3" t="n">
-        <v>24336.65507127577</v>
+        <v>32585.62631485736</v>
       </c>
       <c r="E3" t="n">
         <v>69352.80631588837</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>35204.80977642871</v>
+      </c>
+      <c r="C4" t="n">
         <v>35026.79697226976</v>
       </c>
-      <c r="C4" t="n">
-        <v>34073.10762418564</v>
-      </c>
       <c r="D4" t="n">
-        <v>30491.46666405525</v>
+        <v>30491.46666405524</v>
       </c>
       <c r="E4" t="n">
         <v>18831.00813904469</v>
@@ -26467,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>41075.67462471527</v>
+      </c>
+      <c r="C5" t="n">
         <v>41112.97456555201</v>
-      </c>
-      <c r="C5" t="n">
-        <v>41322.95195161772</v>
       </c>
       <c r="D5" t="n">
         <v>41942.44098443807</v>
@@ -26519,13 +26521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-251068.752943443</v>
+        <v>-249929.5681648265</v>
       </c>
       <c r="C6" t="n">
-        <v>73782.63093636502</v>
+        <v>78244.95533680715</v>
       </c>
       <c r="D6" t="n">
-        <v>66210.44247972882</v>
+        <v>57961.47123614726</v>
       </c>
       <c r="E6" t="n">
         <v>76796.51621997316</v>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>341.6547992988656</v>
+      </c>
+      <c r="C3" t="n">
         <v>343.3658057592666</v>
-      </c>
-      <c r="C3" t="n">
-        <v>352.9977959457669</v>
       </c>
       <c r="D3" t="n">
         <v>381.4147240567924</v>
@@ -26957,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>343.3658057592666</v>
+        <v>341.6547992988656</v>
       </c>
       <c r="C3" t="n">
-        <v>9.631990186500444</v>
+        <v>1.71100646040092</v>
       </c>
       <c r="D3" t="n">
-        <v>28.41692811102547</v>
+        <v>38.04891829752592</v>
       </c>
       <c r="E3" t="n">
         <v>86.32380799659495</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.380365048278458</v>
+        <v>1.373486630347197</v>
       </c>
       <c r="H2" t="n">
-        <v>14.13666355068176</v>
+        <v>14.06621995304324</v>
       </c>
       <c r="I2" t="n">
-        <v>53.21652352375528</v>
+        <v>52.95134331646037</v>
       </c>
       <c r="J2" t="n">
-        <v>117.1567580163238</v>
+        <v>116.5729608924305</v>
       </c>
       <c r="K2" t="n">
-        <v>175.587610509951</v>
+        <v>174.7126499550274</v>
       </c>
       <c r="L2" t="n">
-        <v>217.8319573562029</v>
+        <v>216.7464914185155</v>
       </c>
       <c r="M2" t="n">
-        <v>242.3800242835249</v>
+        <v>241.1722342809525</v>
       </c>
       <c r="N2" t="n">
-        <v>246.301986476946</v>
+        <v>245.0746531694265</v>
       </c>
       <c r="O2" t="n">
-        <v>232.5759815281271</v>
+        <v>231.4170454889115</v>
       </c>
       <c r="P2" t="n">
-        <v>198.4982193987527</v>
+        <v>197.509094302215</v>
       </c>
       <c r="Q2" t="n">
-        <v>149.0638961072804</v>
+        <v>148.321104352906</v>
       </c>
       <c r="R2" t="n">
-        <v>86.70935596392172</v>
+        <v>86.27727954354719</v>
       </c>
       <c r="S2" t="n">
-        <v>31.45506853764538</v>
+        <v>31.29832658903679</v>
       </c>
       <c r="T2" t="n">
-        <v>6.04254799883895</v>
+        <v>6.012437724344859</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1104292038622766</v>
+        <v>0.1098789304277757</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7385604123878564</v>
+        <v>0.7348801343409561</v>
       </c>
       <c r="H3" t="n">
-        <v>7.132938719640613</v>
+        <v>7.09739498166134</v>
       </c>
       <c r="I3" t="n">
-        <v>25.42850542651172</v>
+        <v>25.30179409901977</v>
       </c>
       <c r="J3" t="n">
-        <v>69.77776247038078</v>
+        <v>69.4300569028006</v>
       </c>
       <c r="K3" t="n">
-        <v>119.2613101003672</v>
+        <v>118.6670259036447</v>
       </c>
       <c r="L3" t="n">
-        <v>160.3615491897405</v>
+        <v>159.5624607480221</v>
       </c>
       <c r="M3" t="n">
-        <v>187.1343641388002</v>
+        <v>186.2018656178817</v>
       </c>
       <c r="N3" t="n">
-        <v>192.087253921875</v>
+        <v>191.1300749398437</v>
       </c>
       <c r="O3" t="n">
-        <v>175.7223100473861</v>
+        <v>174.8466782789204</v>
       </c>
       <c r="P3" t="n">
-        <v>141.0326457655372</v>
+        <v>140.3298740742831</v>
       </c>
       <c r="Q3" t="n">
-        <v>94.276588781299</v>
+        <v>93.80680451692626</v>
       </c>
       <c r="R3" t="n">
-        <v>45.85553156913376</v>
+        <v>45.62703149881833</v>
       </c>
       <c r="S3" t="n">
-        <v>13.71843573009899</v>
+        <v>13.65007617953485</v>
       </c>
       <c r="T3" t="n">
-        <v>2.976916749931753</v>
+        <v>2.962082646751484</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04858950081499057</v>
+        <v>0.04834737725927345</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6191842398937593</v>
+        <v>0.6160988184077902</v>
       </c>
       <c r="H4" t="n">
-        <v>5.505110787419063</v>
+        <v>5.477678585480175</v>
       </c>
       <c r="I4" t="n">
-        <v>18.62055877789597</v>
+        <v>18.52777173902701</v>
       </c>
       <c r="J4" t="n">
-        <v>43.77632576048878</v>
+        <v>43.55818646143077</v>
       </c>
       <c r="K4" t="n">
-        <v>71.93795078038401</v>
+        <v>71.57948090228689</v>
       </c>
       <c r="L4" t="n">
-        <v>92.05580962929582</v>
+        <v>91.59709160219094</v>
       </c>
       <c r="M4" t="n">
-        <v>97.05994407716445</v>
+        <v>96.57629023459569</v>
       </c>
       <c r="N4" t="n">
-        <v>94.75207554665143</v>
+        <v>94.27992191143946</v>
       </c>
       <c r="O4" t="n">
-        <v>87.51887783516521</v>
+        <v>87.08276753276661</v>
       </c>
       <c r="P4" t="n">
-        <v>74.88751934133246</v>
+        <v>74.51435163724763</v>
       </c>
       <c r="Q4" t="n">
-        <v>51.84823666964925</v>
+        <v>51.5898746941287</v>
       </c>
       <c r="R4" t="n">
-        <v>27.84077500467757</v>
+        <v>27.70204323495391</v>
       </c>
       <c r="S4" t="n">
-        <v>10.7906926170576</v>
+        <v>10.73692213534303</v>
       </c>
       <c r="T4" t="n">
-        <v>2.645605388636971</v>
+        <v>2.632422224106012</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03377368581238691</v>
+        <v>0.03360539009497042</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.419086616867404</v>
+        <v>1.380365048278458</v>
       </c>
       <c r="H5" t="n">
-        <v>14.5332208149933</v>
+        <v>14.13666355068176</v>
       </c>
       <c r="I5" t="n">
-        <v>54.70933679678063</v>
+        <v>53.21652352375528</v>
       </c>
       <c r="J5" t="n">
-        <v>120.4432027483499</v>
+        <v>117.1567580163238</v>
       </c>
       <c r="K5" t="n">
-        <v>180.5131392403472</v>
+        <v>175.587610509951</v>
       </c>
       <c r="L5" t="n">
-        <v>223.942511291303</v>
+        <v>217.8319573562029</v>
       </c>
       <c r="M5" t="n">
-        <v>249.1791929140187</v>
+        <v>242.3800242835249</v>
       </c>
       <c r="N5" t="n">
-        <v>253.2111727641932</v>
+        <v>246.301986476946</v>
       </c>
       <c r="O5" t="n">
-        <v>239.1001302177179</v>
+        <v>232.5759815281271</v>
       </c>
       <c r="P5" t="n">
-        <v>204.0664293638039</v>
+        <v>198.4982193987527</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.24538989724</v>
+        <v>149.0638961072804</v>
       </c>
       <c r="R5" t="n">
-        <v>89.14169969679713</v>
+        <v>86.70935596392172</v>
       </c>
       <c r="S5" t="n">
-        <v>32.337436281866</v>
+        <v>31.45506853764538</v>
       </c>
       <c r="T5" t="n">
-        <v>6.212051665337063</v>
+        <v>6.04254799883895</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1135269293493923</v>
+        <v>0.1104292038622766</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7592782780720271</v>
+        <v>0.7385604123878564</v>
       </c>
       <c r="H6" t="n">
-        <v>7.333029685590367</v>
+        <v>7.132938719640613</v>
       </c>
       <c r="I6" t="n">
-        <v>26.14181790730444</v>
+        <v>25.42850542651172</v>
       </c>
       <c r="J6" t="n">
-        <v>71.73514643837515</v>
+        <v>69.77776247038078</v>
       </c>
       <c r="K6" t="n">
-        <v>122.606791069201</v>
+        <v>119.2613101003672</v>
       </c>
       <c r="L6" t="n">
-        <v>164.859961210332</v>
+        <v>160.3615491897405</v>
       </c>
       <c r="M6" t="n">
-        <v>192.383798790443</v>
+        <v>187.1343641388002</v>
       </c>
       <c r="N6" t="n">
         <v>192.087253921875</v>
       </c>
       <c r="O6" t="n">
-        <v>180.6516173270757</v>
+        <v>175.7223100473861</v>
       </c>
       <c r="P6" t="n">
-        <v>144.9888494328944</v>
+        <v>141.0326457655372</v>
       </c>
       <c r="Q6" t="n">
-        <v>96.92120616231701</v>
+        <v>94.276588781299</v>
       </c>
       <c r="R6" t="n">
-        <v>47.14185659819131</v>
+        <v>45.85553156913376</v>
       </c>
       <c r="S6" t="n">
-        <v>14.10326099839926</v>
+        <v>13.71843573009899</v>
       </c>
       <c r="T6" t="n">
-        <v>3.060424287492073</v>
+        <v>2.976916749931753</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04995251829421232</v>
+        <v>0.04858950081499057</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6365534025251535</v>
+        <v>0.6191842398937593</v>
       </c>
       <c r="H7" t="n">
-        <v>5.659538433360004</v>
+        <v>5.505110787419063</v>
       </c>
       <c r="I7" t="n">
-        <v>19.14289686866553</v>
+        <v>18.62055877789597</v>
       </c>
       <c r="J7" t="n">
-        <v>45.00432555852834</v>
+        <v>43.77632576048878</v>
       </c>
       <c r="K7" t="n">
-        <v>73.95593167519509</v>
+        <v>71.93795078038401</v>
       </c>
       <c r="L7" t="n">
-        <v>94.63813040814874</v>
+        <v>92.05580962929582</v>
       </c>
       <c r="M7" t="n">
-        <v>99.78263927037472</v>
+        <v>97.05994407716445</v>
       </c>
       <c r="N7" t="n">
-        <v>97.41003113369014</v>
+        <v>94.75207554665143</v>
       </c>
       <c r="O7" t="n">
-        <v>89.97393002237354</v>
+        <v>87.51887783516521</v>
       </c>
       <c r="P7" t="n">
-        <v>76.98824061086034</v>
+        <v>74.88751934133246</v>
       </c>
       <c r="Q7" t="n">
-        <v>53.3026671878108</v>
+        <v>51.84823666964925</v>
       </c>
       <c r="R7" t="n">
-        <v>28.62175571717644</v>
+        <v>27.84077500467757</v>
       </c>
       <c r="S7" t="n">
-        <v>11.09338975127926</v>
+        <v>10.7906926170576</v>
       </c>
       <c r="T7" t="n">
-        <v>2.719819083516564</v>
+        <v>2.645605388636971</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03472109468319023</v>
+        <v>0.03377368581238691</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -32017,7 +32019,7 @@
         <v>270.397529979667</v>
       </c>
       <c r="Q14" t="n">
-        <v>203.0572840332873</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R14" t="n">
         <v>118.1169067903461</v>
@@ -32026,7 +32028,7 @@
         <v>42.8486102479058</v>
       </c>
       <c r="T14" t="n">
-        <v>8.23125798618574</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U14" t="n">
         <v>0.1504284726201847</v>
@@ -32108,7 +32110,7 @@
         <v>4.055204820349649</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06618941491321521</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,7 +32150,7 @@
         <v>0.8434629266536492</v>
       </c>
       <c r="H16" t="n">
-        <v>7.499152202429724</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I16" t="n">
         <v>25.36523055791157</v>
@@ -32157,7 +32159,7 @@
         <v>59.632828914413</v>
       </c>
       <c r="K16" t="n">
-        <v>97.99505638757849</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L16" t="n">
         <v>125.3999336590344</v>
@@ -32491,7 +32493,7 @@
         <v>270.397529979667</v>
       </c>
       <c r="Q20" t="n">
-        <v>203.0572840332874</v>
+        <v>203.0572840332873</v>
       </c>
       <c r="R20" t="n">
         <v>118.1169067903461</v>
@@ -32500,7 +32502,7 @@
         <v>42.8486102479058</v>
       </c>
       <c r="T20" t="n">
-        <v>8.231257986185739</v>
+        <v>8.23125798618574</v>
       </c>
       <c r="U20" t="n">
         <v>0.1504284726201847</v>
@@ -32582,7 +32584,7 @@
         <v>4.055204820349649</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.06618941491321521</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,7 +32624,7 @@
         <v>0.8434629266536492</v>
       </c>
       <c r="H22" t="n">
-        <v>7.499152202429723</v>
+        <v>7.499152202429724</v>
       </c>
       <c r="I22" t="n">
         <v>25.36523055791157</v>
@@ -32631,7 +32633,7 @@
         <v>59.632828914413</v>
       </c>
       <c r="K22" t="n">
-        <v>97.9950563875785</v>
+        <v>97.99505638757849</v>
       </c>
       <c r="L22" t="n">
         <v>125.3999336590344</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_19_22.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_19_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>671944.2611818379</v>
+        <v>544192.3156242025</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1784511.217947469</v>
+        <v>1783776.864811973</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24018285.99384455</v>
+        <v>19042283.45481648</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4572225.505591175</v>
+        <v>6870740.901814596</v>
       </c>
     </row>
     <row r="11">
@@ -7987,10 +7987,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M2" t="n">
-        <v>95.70913181393388</v>
+        <v>94.50134181136147</v>
       </c>
       <c r="N2" t="n">
-        <v>90.44195234058779</v>
+        <v>89.21461903306817</v>
       </c>
       <c r="O2" t="n">
         <v>99.00804712831379</v>
@@ -8063,19 +8063,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L3" t="n">
-        <v>43.07331968004391</v>
+        <v>42.27423123832551</v>
       </c>
       <c r="M3" t="n">
-        <v>21.66915899307011</v>
+        <v>20.73666047215158</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9571789820313086</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>33.70032922107961</v>
+        <v>32.82469745261383</v>
       </c>
       <c r="P3" t="n">
-        <v>55.60769676917488</v>
+        <v>54.90492507792075</v>
       </c>
       <c r="Q3" t="n">
         <v>54.62009481132077</v>
@@ -8227,7 +8227,7 @@
         <v>94.50134181136147</v>
       </c>
       <c r="N5" t="n">
-        <v>89.2146190330682</v>
+        <v>89.21461903306817</v>
       </c>
       <c r="O5" t="n">
         <v>99.00804712831379</v>
@@ -8458,16 +8458,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L8" t="n">
-        <v>102.8381142892153</v>
+        <v>104.2530745629479</v>
       </c>
       <c r="M8" t="n">
-        <v>67.64282070579191</v>
+        <v>69.21723664397632</v>
       </c>
       <c r="N8" t="n">
-        <v>61.92149897629116</v>
+        <v>63.52139061035666</v>
       </c>
       <c r="O8" t="n">
-        <v>78.17053334824146</v>
+        <v>79.68126565070401</v>
       </c>
       <c r="P8" t="n">
         <v>83.66766412458549</v>
@@ -8537,19 +8537,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L9" t="n">
-        <v>24.50430953720272</v>
+        <v>25.54596212248728</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.215559435448768</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>13.35262508576585</v>
+        <v>14.4940558057726</v>
       </c>
       <c r="P9" t="n">
-        <v>39.27687031530112</v>
+        <v>40.19296909841637</v>
       </c>
       <c r="Q9" t="n">
         <v>54.62009481132077</v>
@@ -9403,7 +9403,7 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>82.69308435253603</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L20" t="n">
         <v>48.07411698098349</v>
@@ -22546,37 +22546,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>364.5563275970632</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>333.5971194742085</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>319.1317556432476</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>359.9585549362873</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>399.146417573369</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>422.2167349439148</v>
+        <v>22.20985652598359</v>
       </c>
       <c r="H2" t="n">
-        <v>350.0302086235789</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>254.6788077461599</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>104.241554533109</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>62.89094992975379</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>19.46997469197376</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -22585,37 +22585,37 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.093541586991591</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>57.00149786528118</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>121.5990695169012</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>211.9303003426456</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>236.0914234572714</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.5019606424398</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>248.7917266063122</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>313.3044420010231</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>325.3917254792934</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>348.8168793035129</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>377.9289763951821</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22625,34 +22625,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>188.0127573810344</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>203.8424276152394</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>172.0989423795122</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>187.4605452976028</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>173.9843481253239</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>161.0343157549836</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>137.937230470563</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>117.6169923923482</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>83.28630290869316</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>14.16511697308491</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -22670,31 +22670,31 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.29644527255945</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>155.5936088975356</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>208.3819030908814</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>230.1732865992993</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>249.6508274585269</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>249.2999251801724</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>283.2492567629311</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>230.033063710963</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>242.8962664135933</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22704,76 +22704,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175.175320970127</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>165.5867821959998</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>141.3987433365328</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>136.4317244039137</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>131.7685403657761</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>169.250603464539</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>167.7218531446305</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>168.2233735905427</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>133.427194649778</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>89.34902992251145</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>63.42832505831589</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>60.19015695232082</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>47.78758048940401</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>73.019086697924</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>91.81114782298006</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9970210107205</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>221.7828567288786</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>243.9747107992991</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>218.1559507844908</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>291.2204648267885</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>237.3615500762718</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>294.4857951463376</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>217.7416213385031</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>215.5502738121359</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22783,37 +22783,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>364.5563275970632</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>333.5971194742085</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>319.1317556432476</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>359.9585549362873</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>399.146417573369</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>422.2098565259836</v>
+        <v>22.20985652598359</v>
       </c>
       <c r="H5" t="n">
-        <v>349.9597650259403</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>254.413627538865</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>103.6577574092157</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>62.01598937483024</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>18.38450875428637</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -22822,37 +22822,37 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>4.934605547775959</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>56.01237276874352</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>120.8562777625268</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>211.4982239222711</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>235.9346815086628</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.4718503679457</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>248.7911763328777</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>313.3044420010231</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>325.3917254792934</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>348.8168793035129</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>377.9289763951821</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22862,34 +22862,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>188.0127573810344</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>203.8424276152394</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>172.0989423795122</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>187.4605452976028</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>173.9843481253239</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>161.0306354769367</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>137.9016867325838</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>117.4902810648562</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>82.93859734111298</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>13.57083277636241</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -22907,31 +22907,31 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>55.82666100818672</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>155.3651088272201</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>208.3135435403172</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>230.1584524961191</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>249.6505853349712</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>249.2999251801724</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>283.2492567629311</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>230.033063710963</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>242.8962664135933</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22941,76 +22941,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>175.175320970127</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>165.5867821959998</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>141.3987433365328</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>136.4317244039137</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>131.7685403657761</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>169.247518043053</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>167.6944209426916</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>168.1305865516738</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>133.20905535072</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>88.99056004441432</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>62.96960703121101</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>59.70650310975206</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>47.31542685419204</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>72.58297639552539</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>91.43798011889523</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>152.7386590351999</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>221.644124959155</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>243.9209403175845</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>218.1427676199599</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>291.2202965310711</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>237.3615500762718</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>294.4857951463376</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>217.7416213385031</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>215.5502738121359</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23020,34 +23020,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>364.5563275970632</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>333.5971194742085</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>319.1317556432476</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>359.9585549362873</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>399.146417573369</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>422.0568960504157</v>
+        <v>22.06586241940148</v>
       </c>
       <c r="H8" t="n">
-        <v>348.3932585555301</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>248.5166188045319</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>90.67542824598098</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>42.5588432808045</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -23062,34 +23062,34 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>34.01646518147888</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>104.3382672065391</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>201.8898204488763</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>232.4490946716583</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.802265886147</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>248.7789394948323</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>313.3044420010231</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>325.3917254792934</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>348.8168793035129</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>377.9289763951821</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23099,34 +23099,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>188.0127573810344</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>203.8424276152394</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>172.0989423795122</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>187.4605452976028</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>173.9843481253239</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>160.948794407391</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>137.1112742977616</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>114.6725073984828</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>75.2064110293488</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3552948050415807</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -23144,31 +23144,31 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>45.37972027109998</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>150.2837834742034</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>206.7933815687133</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>229.8285755535207</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>249.64520105408</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>249.2999251801724</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>283.2492567629311</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>230.033063710963</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>242.8962664135933</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23178,76 +23178,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>175.175320970127</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>165.5867821959998</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>141.3987433365328</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>136.4317244039137</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>131.7685403657761</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>169.1789052395657</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>167.0843907444132</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>166.0672124249817</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>128.3581301441649</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>81.01899978470318</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>52.76875441092022</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>48.95113428673177</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>36.81579666235183</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>62.88486849896913</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>83.13957341348075</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>146.9932723722735</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>218.5590438132605</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>242.7252062786279</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>217.8496038232412</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>291.2165540145173</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>237.3615500762718</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>294.4857951463376</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>217.7416213385031</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>215.5502738121359</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -24013,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>66.86288983651983</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R20" t="n">
         <v>180.0906730958467</v>
@@ -24153,10 +24153,10 @@
         <v>117.3525521967958</v>
       </c>
       <c r="K22" t="n">
-        <v>62.93345443721985</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L22" t="n">
-        <v>29.62548300147246</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M22" t="n">
         <v>24.54979951156312</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>374638.8221831821</v>
+        <v>1176271.855049548</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>375265.573945687</v>
+        <v>1176271.855049548</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>386086.3870993236</v>
+        <v>1172067.818958298</v>
       </c>
     </row>
     <row r="5">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>155573.9223530953</v>
+        <v>523070.6516187529</v>
       </c>
       <c r="C2" t="n">
-        <v>155942.7727794829</v>
+        <v>523070.6516187529</v>
       </c>
       <c r="D2" t="n">
-        <v>162981.0051994979</v>
+        <v>523076.9556807388</v>
       </c>
       <c r="E2" t="n">
         <v>175177.0306736701</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>329223.0061167778</v>
+        <v>330871.7541851042</v>
       </c>
       <c r="C3" t="n">
-        <v>1558.045904853998</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>32585.62631485736</v>
+        <v>30675.49398760887</v>
       </c>
       <c r="E3" t="n">
-        <v>69352.80631588837</v>
+        <v>71144.70374179269</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35204.80977642871</v>
+        <v>416016.8074534331</v>
       </c>
       <c r="C4" t="n">
-        <v>35026.79697226976</v>
+        <v>416016.8074534331</v>
       </c>
       <c r="D4" t="n">
-        <v>30491.46666405524</v>
+        <v>404867.6218717255</v>
       </c>
       <c r="E4" t="n">
         <v>18831.00813904469</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41075.67462471527</v>
+        <v>41112.97456555201</v>
       </c>
       <c r="C5" t="n">
         <v>41112.97456555201</v>
       </c>
       <c r="D5" t="n">
-        <v>41942.44098443807</v>
+        <v>41893.81860702012</v>
       </c>
       <c r="E5" t="n">
         <v>10196.69999876384</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-249929.5681648265</v>
+        <v>-264975.0821998231</v>
       </c>
       <c r="C6" t="n">
-        <v>78244.95533680715</v>
+        <v>65896.67198528109</v>
       </c>
       <c r="D6" t="n">
-        <v>57961.47123614726</v>
+        <v>45596.11014816976</v>
       </c>
       <c r="E6" t="n">
-        <v>76796.51621997316</v>
+        <v>59147.07477298746</v>
       </c>
       <c r="F6" t="n">
-        <v>146149.3225358615</v>
+        <v>130291.7785147801</v>
       </c>
       <c r="G6" t="n">
-        <v>146149.3225358615</v>
+        <v>130291.7785147801</v>
       </c>
       <c r="H6" t="n">
-        <v>146149.3225358615</v>
+        <v>130291.7785147801</v>
       </c>
       <c r="I6" t="n">
-        <v>146149.3225358615</v>
+        <v>130291.7785147801</v>
       </c>
       <c r="J6" t="n">
-        <v>146149.3225358615</v>
+        <v>130291.7785147801</v>
       </c>
       <c r="K6" t="n">
-        <v>146149.3225358615</v>
+        <v>130291.7785147801</v>
       </c>
       <c r="L6" t="n">
-        <v>146149.3225358615</v>
+        <v>130291.7785147801</v>
       </c>
       <c r="M6" t="n">
-        <v>146149.3225358615</v>
+        <v>130291.7785147801</v>
       </c>
       <c r="N6" t="n">
-        <v>146149.3225358615</v>
+        <v>130291.7785147801</v>
       </c>
       <c r="O6" t="n">
-        <v>146149.3225358615</v>
+        <v>130291.7785147801</v>
       </c>
       <c r="P6" t="n">
-        <v>146149.3225358615</v>
+        <v>130291.7785147801</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>341.6547992988656</v>
+        <v>343.3658057592666</v>
       </c>
       <c r="C3" t="n">
         <v>343.3658057592666</v>
       </c>
       <c r="D3" t="n">
-        <v>381.4147240567924</v>
+        <v>379.1843397715653</v>
       </c>
       <c r="E3" t="n">
         <v>467.7385320533874</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>341.6547992988656</v>
+        <v>343.3658057592666</v>
       </c>
       <c r="C3" t="n">
-        <v>1.71100646040092</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>38.04891829752592</v>
+        <v>35.81853401229881</v>
       </c>
       <c r="E3" t="n">
-        <v>86.32380799659495</v>
+        <v>88.55419228182207</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27378,37 +27378,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>319.1317556432476</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>349.9597650259403</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>254.413627538865</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>103.6577574092157</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>62.01598937483024</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>18.3845087542864</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27417,37 +27417,37 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>4.934605547775959</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>56.01237276874355</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>120.8562777625268</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>211.4982239222711</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>235.9346815086628</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.4718503679457</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>248.7911763328777</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>313.3044420010231</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="3">
@@ -27457,34 +27457,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>161.0306354769367</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>137.9016867325838</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>117.4902810648562</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>82.93859734111298</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13.57083277636242</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27502,31 +27502,31 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>55.8266610081867</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>155.3651088272201</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>208.3135435403172</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>230.1584524961191</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>249.6505853349712</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>249.2999251801724</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="4">
@@ -27536,76 +27536,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>175.175320970127</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>165.5867821959998</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>141.3987433365328</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>136.4317244039137</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>131.7685403657761</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>169.247518043053</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>167.6944209426916</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>168.1305865516738</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>133.20905535072</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>88.99056004441432</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>62.96960703121101</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>59.70650310975205</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>47.31542685419204</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>72.58297639552539</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>91.43798011889523</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>152.7386590351999</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>221.644124959155</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>243.9209403175845</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>218.1427676199599</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>291.2202965310711</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>237.3615500762718</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>294.4857951463376</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>217.7416213385031</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>215.5502738121359</v>
       </c>
     </row>
     <row r="5">
@@ -27615,37 +27615,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>319.1317556432476</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>349.9597650259403</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>254.413627538865</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>103.6577574092157</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>62.01598937483024</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>18.3845087542864</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -27654,37 +27654,37 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>4.934605547775959</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>56.01237276874355</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>120.8562777625268</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>211.4982239222711</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>235.9346815086628</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.4718503679457</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>248.7911763328777</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>313.3044420010231</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="6">
@@ -27694,34 +27694,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>161.0306354769367</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>137.9016867325838</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>117.4902810648562</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>82.93859734111298</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>13.57083277636242</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -27739,31 +27739,31 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>55.8266610081867</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>155.3651088272201</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>208.3135435403172</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>230.1584524961191</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>249.6505853349712</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>249.2999251801724</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="7">
@@ -27773,76 +27773,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>175.175320970127</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>165.5867821959998</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>141.3987433365328</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>136.4317244039137</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>131.7685403657761</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>169.247518043053</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>167.6944209426916</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>168.1305865516738</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>133.20905535072</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>88.99056004441432</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>62.96960703121101</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>59.70650310975205</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>47.31542685419204</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>72.58297639552539</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>91.43798011889523</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>152.7386590351999</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>221.644124959155</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>243.9209403175845</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>218.1427676199599</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>291.2202965310711</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>237.3615500762718</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>294.4857951463376</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>217.7416213385031</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>215.5502738121359</v>
       </c>
     </row>
     <row r="8">
@@ -27852,34 +27852,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>319.1317556432476</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>348.4850853819063</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>248.8622947448584</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>91.4364376056927</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>43.69939903968671</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -27894,34 +27894,34 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>35.30584024960353</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>105.3065341853585</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>202.4530541246829</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>232.653415804923</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.8415161663825</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>248.7796568043511</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>313.3044420010231</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="9">
@@ -27931,34 +27931,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>160.9535918377404</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>137.157607375083</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>114.8376820837567</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>75.65966299055707</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1.12997459965672</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -27976,31 +27976,31 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>45.99210804692309</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>150.5816449830871</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>206.8824917333164</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>229.8479125644464</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>249.6455166744977</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>249.2999251801724</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="10">
@@ -28010,76 +28010,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>175.175320970127</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>165.5867821959998</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>141.3987433365328</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>136.4317244039137</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>131.7685403657761</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>169.1829272440145</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>167.1201500203304</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>166.1881650678593</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>128.642485858693</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>81.48628357429665</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>53.36671678142193</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>49.58160176591488</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>37.43127303404408</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>63.45336054596439</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>83.62601656972109</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>147.3300603993428</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>218.7398877587479</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>242.7952988470669</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>217.8667887513406</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>291.2167733965781</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>237.3615500762718</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>294.4857951463376</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>217.7416213385031</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>215.5502738121359</v>
       </c>
     </row>
     <row r="11">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.373486630347197</v>
+        <v>1.380365048278458</v>
       </c>
       <c r="H2" t="n">
-        <v>14.06621995304324</v>
+        <v>14.13666355068176</v>
       </c>
       <c r="I2" t="n">
-        <v>52.95134331646037</v>
+        <v>53.21652352375528</v>
       </c>
       <c r="J2" t="n">
-        <v>116.5729608924305</v>
+        <v>117.1567580163238</v>
       </c>
       <c r="K2" t="n">
-        <v>174.7126499550274</v>
+        <v>175.587610509951</v>
       </c>
       <c r="L2" t="n">
-        <v>216.7464914185155</v>
+        <v>217.8319573562028</v>
       </c>
       <c r="M2" t="n">
-        <v>241.1722342809525</v>
+        <v>242.3800242835249</v>
       </c>
       <c r="N2" t="n">
-        <v>245.0746531694265</v>
+        <v>246.3019864769461</v>
       </c>
       <c r="O2" t="n">
-        <v>231.4170454889115</v>
+        <v>232.5759815281271</v>
       </c>
       <c r="P2" t="n">
-        <v>197.509094302215</v>
+        <v>198.4982193987527</v>
       </c>
       <c r="Q2" t="n">
-        <v>148.321104352906</v>
+        <v>149.0638961072804</v>
       </c>
       <c r="R2" t="n">
-        <v>86.27727954354719</v>
+        <v>86.70935596392172</v>
       </c>
       <c r="S2" t="n">
-        <v>31.29832658903679</v>
+        <v>31.45506853764538</v>
       </c>
       <c r="T2" t="n">
-        <v>6.012437724344859</v>
+        <v>6.042547998838951</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1098789304277757</v>
+        <v>0.1104292038622766</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7348801343409561</v>
+        <v>0.7385604123878564</v>
       </c>
       <c r="H3" t="n">
-        <v>7.09739498166134</v>
+        <v>7.132938719640614</v>
       </c>
       <c r="I3" t="n">
-        <v>25.30179409901977</v>
+        <v>25.42850542651172</v>
       </c>
       <c r="J3" t="n">
-        <v>69.4300569028006</v>
+        <v>69.77776247038078</v>
       </c>
       <c r="K3" t="n">
-        <v>118.6670259036447</v>
+        <v>119.2613101003671</v>
       </c>
       <c r="L3" t="n">
-        <v>159.5624607480221</v>
+        <v>160.3615491897405</v>
       </c>
       <c r="M3" t="n">
-        <v>186.2018656178817</v>
+        <v>187.1343641388002</v>
       </c>
       <c r="N3" t="n">
-        <v>191.1300749398437</v>
+        <v>192.087253921875</v>
       </c>
       <c r="O3" t="n">
-        <v>174.8466782789204</v>
+        <v>175.7223100473861</v>
       </c>
       <c r="P3" t="n">
-        <v>140.3298740742831</v>
+        <v>141.0326457655372</v>
       </c>
       <c r="Q3" t="n">
-        <v>93.80680451692626</v>
+        <v>94.27658878129901</v>
       </c>
       <c r="R3" t="n">
-        <v>45.62703149881833</v>
+        <v>45.85553156913377</v>
       </c>
       <c r="S3" t="n">
-        <v>13.65007617953485</v>
+        <v>13.71843573009899</v>
       </c>
       <c r="T3" t="n">
-        <v>2.962082646751484</v>
+        <v>2.976916749931753</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04834737725927345</v>
+        <v>0.04858950081499057</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6160988184077902</v>
+        <v>0.6191842398937593</v>
       </c>
       <c r="H4" t="n">
-        <v>5.477678585480175</v>
+        <v>5.505110787419063</v>
       </c>
       <c r="I4" t="n">
-        <v>18.52777173902701</v>
+        <v>18.62055877789597</v>
       </c>
       <c r="J4" t="n">
-        <v>43.55818646143077</v>
+        <v>43.77632576048878</v>
       </c>
       <c r="K4" t="n">
-        <v>71.57948090228689</v>
+        <v>71.93795078038401</v>
       </c>
       <c r="L4" t="n">
-        <v>91.59709160219094</v>
+        <v>92.05580962929582</v>
       </c>
       <c r="M4" t="n">
-        <v>96.57629023459569</v>
+        <v>97.05994407716446</v>
       </c>
       <c r="N4" t="n">
-        <v>94.27992191143946</v>
+        <v>94.75207554665143</v>
       </c>
       <c r="O4" t="n">
-        <v>87.08276753276661</v>
+        <v>87.51887783516521</v>
       </c>
       <c r="P4" t="n">
-        <v>74.51435163724763</v>
+        <v>74.88751934133246</v>
       </c>
       <c r="Q4" t="n">
-        <v>51.5898746941287</v>
+        <v>51.84823666964925</v>
       </c>
       <c r="R4" t="n">
-        <v>27.70204323495391</v>
+        <v>27.84077500467757</v>
       </c>
       <c r="S4" t="n">
-        <v>10.73692213534303</v>
+        <v>10.7906926170576</v>
       </c>
       <c r="T4" t="n">
-        <v>2.632422224106012</v>
+        <v>2.645605388636971</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03360539009497042</v>
+        <v>0.03377368581238691</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31293,13 +31293,13 @@
         <v>175.587610509951</v>
       </c>
       <c r="L5" t="n">
-        <v>217.8319573562029</v>
+        <v>217.8319573562028</v>
       </c>
       <c r="M5" t="n">
         <v>242.3800242835249</v>
       </c>
       <c r="N5" t="n">
-        <v>246.301986476946</v>
+        <v>246.3019864769461</v>
       </c>
       <c r="O5" t="n">
         <v>232.5759815281271</v>
@@ -31317,7 +31317,7 @@
         <v>31.45506853764538</v>
       </c>
       <c r="T5" t="n">
-        <v>6.04254799883895</v>
+        <v>6.042547998838951</v>
       </c>
       <c r="U5" t="n">
         <v>0.1104292038622766</v>
@@ -31360,7 +31360,7 @@
         <v>0.7385604123878564</v>
       </c>
       <c r="H6" t="n">
-        <v>7.132938719640613</v>
+        <v>7.132938719640614</v>
       </c>
       <c r="I6" t="n">
         <v>25.42850542651172</v>
@@ -31369,7 +31369,7 @@
         <v>69.77776247038078</v>
       </c>
       <c r="K6" t="n">
-        <v>119.2613101003672</v>
+        <v>119.2613101003671</v>
       </c>
       <c r="L6" t="n">
         <v>160.3615491897405</v>
@@ -31387,10 +31387,10 @@
         <v>141.0326457655372</v>
       </c>
       <c r="Q6" t="n">
-        <v>94.276588781299</v>
+        <v>94.27658878129901</v>
       </c>
       <c r="R6" t="n">
-        <v>45.85553156913376</v>
+        <v>45.85553156913377</v>
       </c>
       <c r="S6" t="n">
         <v>13.71843573009899</v>
@@ -31454,7 +31454,7 @@
         <v>92.05580962929582</v>
       </c>
       <c r="M7" t="n">
-        <v>97.05994407716445</v>
+        <v>97.05994407716446</v>
       </c>
       <c r="N7" t="n">
         <v>94.75207554665143</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.5333255238464</v>
+        <v>1.524359154860563</v>
       </c>
       <c r="H8" t="n">
-        <v>15.70317002109195</v>
+        <v>15.61134319471574</v>
       </c>
       <c r="I8" t="n">
-        <v>59.11353225808841</v>
+        <v>58.76785631776191</v>
       </c>
       <c r="J8" t="n">
-        <v>130.1390871795585</v>
+        <v>129.3780778198468</v>
       </c>
       <c r="K8" t="n">
-        <v>195.0447566039767</v>
+        <v>193.9042008450945</v>
       </c>
       <c r="L8" t="n">
-        <v>241.970267604391</v>
+        <v>240.5553073306585</v>
       </c>
       <c r="M8" t="n">
-        <v>269.2385453890944</v>
+        <v>267.66412945091</v>
       </c>
       <c r="N8" t="n">
-        <v>273.5951065337231</v>
+        <v>271.9952148996576</v>
       </c>
       <c r="O8" t="n">
-        <v>258.3481008559754</v>
+        <v>256.8373685535129</v>
       </c>
       <c r="P8" t="n">
-        <v>220.4941269860173</v>
+        <v>219.2047519178927</v>
       </c>
       <c r="Q8" t="n">
-        <v>165.5819066632681</v>
+        <v>164.6136396844487</v>
       </c>
       <c r="R8" t="n">
-        <v>96.31775943731652</v>
+        <v>95.75452576150992</v>
       </c>
       <c r="S8" t="n">
-        <v>34.94065537464989</v>
+        <v>34.73633424138511</v>
       </c>
       <c r="T8" t="n">
-        <v>6.712132480637621</v>
+        <v>6.672882200402118</v>
       </c>
       <c r="U8" t="n">
-        <v>0.122666041907712</v>
+        <v>0.121948732388845</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8204014819334779</v>
+        <v>0.8156040515841216</v>
       </c>
       <c r="H9" t="n">
-        <v>7.923351154462802</v>
+        <v>7.877018077141386</v>
       </c>
       <c r="I9" t="n">
-        <v>28.2462790928851</v>
+        <v>28.08110440761121</v>
       </c>
       <c r="J9" t="n">
-        <v>77.50994878214496</v>
+        <v>77.05669682093669</v>
       </c>
       <c r="K9" t="n">
-        <v>132.476848071688</v>
+        <v>131.7021682770728</v>
       </c>
       <c r="L9" t="n">
-        <v>178.1314708908633</v>
+        <v>177.0898183055787</v>
       </c>
       <c r="M9" t="n">
-        <v>207.8710246109518</v>
+        <v>206.6554651755031</v>
       </c>
       <c r="N9" t="n">
         <v>192.087253921875</v>
       </c>
       <c r="O9" t="n">
-        <v>195.1943824142341</v>
+        <v>194.0529516942274</v>
       </c>
       <c r="P9" t="n">
-        <v>156.6607005281569</v>
+        <v>155.7446017450416</v>
       </c>
       <c r="Q9" t="n">
-        <v>104.7235295183857</v>
+        <v>104.1111417425626</v>
       </c>
       <c r="R9" t="n">
-        <v>50.93685692215052</v>
+        <v>50.6389954132668</v>
       </c>
       <c r="S9" t="n">
-        <v>15.23859770170297</v>
+        <v>15.14948753709979</v>
       </c>
       <c r="T9" t="n">
-        <v>3.306793692530114</v>
+        <v>3.287456681604419</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05397378170614989</v>
+        <v>0.05365816128842908</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6877970433811009</v>
+        <v>0.6837750389323308</v>
       </c>
       <c r="H10" t="n">
-        <v>6.115140985697429</v>
+        <v>6.079381709780182</v>
       </c>
       <c r="I10" t="n">
-        <v>20.68393290458802</v>
+        <v>20.56298026171046</v>
       </c>
       <c r="J10" t="n">
-        <v>48.62725096704384</v>
+        <v>48.34289525251579</v>
       </c>
       <c r="K10" t="n">
-        <v>79.90951104009515</v>
+        <v>79.44222725050169</v>
       </c>
       <c r="L10" t="n">
-        <v>102.2566622495866</v>
+        <v>101.6586998790849</v>
       </c>
       <c r="M10" t="n">
-        <v>107.8153129001847</v>
+        <v>107.1848454210016</v>
       </c>
       <c r="N10" t="n">
-        <v>105.2517057384916</v>
+        <v>104.6362293667994</v>
       </c>
       <c r="O10" t="n">
-        <v>97.21698573172148</v>
+        <v>96.64849368472622</v>
       </c>
       <c r="P10" t="n">
-        <v>83.18592604674694</v>
+        <v>82.6994828905066</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.59362333257565</v>
+        <v>57.25683530550636</v>
       </c>
       <c r="R10" t="n">
-        <v>30.92585615057204</v>
+        <v>30.74501220508461</v>
       </c>
       <c r="S10" t="n">
-        <v>11.98642665601427</v>
+        <v>11.91633408757525</v>
       </c>
       <c r="T10" t="n">
-        <v>2.938769185355612</v>
+        <v>2.921584257256322</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03751620236624191</v>
+        <v>0.03729682030539991</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32493,7 +32493,7 @@
         <v>270.397529979667</v>
       </c>
       <c r="Q20" t="n">
-        <v>203.0572840332873</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R20" t="n">
         <v>118.1169067903461</v>
@@ -32502,7 +32502,7 @@
         <v>42.8486102479058</v>
       </c>
       <c r="T20" t="n">
-        <v>8.23125798618574</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U20" t="n">
         <v>0.1504284726201847</v>
@@ -32584,7 +32584,7 @@
         <v>4.055204820349649</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06618941491321521</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,7 +32624,7 @@
         <v>0.8434629266536492</v>
       </c>
       <c r="H22" t="n">
-        <v>7.499152202429724</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I22" t="n">
         <v>25.36523055791157</v>
@@ -32633,7 +32633,7 @@
         <v>59.632828914413</v>
       </c>
       <c r="K22" t="n">
-        <v>97.99505638757849</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L22" t="n">
         <v>125.3999336590344</v>
